--- a/teaching/traditional_assets/database/data/luxembourg/luxembourg_coal_related_energy.xlsx
+++ b/teaching/traditional_assets/database/data/luxembourg/luxembourg_coal_related_energy.xlsx
@@ -591,25 +591,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.32</v>
+        <v>-0.252</v>
       </c>
       <c r="G2">
-        <v>0.1851239669421488</v>
+        <v>-0.02222222222222222</v>
       </c>
       <c r="H2">
-        <v>0.1851239669421488</v>
+        <v>-0.02222222222222222</v>
       </c>
       <c r="I2">
-        <v>-0.007768595041322314</v>
+        <v>-0.7886178861788619</v>
       </c>
       <c r="J2">
-        <v>-0.007768595041322314</v>
+        <v>-0.7886178861788619</v>
       </c>
       <c r="K2">
-        <v>-0.783</v>
+        <v>31.1</v>
       </c>
       <c r="L2">
-        <v>-0.0647107438016529</v>
+        <v>8.428184281842819</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -618,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -627,79 +627,79 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.007</v>
+        <v>0.016</v>
       </c>
       <c r="V2">
-        <v>0.003431372549019608</v>
+        <v>0.002043422733077906</v>
       </c>
       <c r="W2">
-        <v>0.01188163884673748</v>
+        <v>-0.4307479224376731</v>
       </c>
       <c r="X2">
-        <v>1.880979523609088</v>
+        <v>0.3288721801406141</v>
       </c>
       <c r="Y2">
-        <v>-1.86909788476235</v>
+        <v>-0.7596201025782873</v>
       </c>
       <c r="Z2">
-        <v>1.953818827708707</v>
+        <v>2.179562906083871</v>
       </c>
       <c r="AA2">
-        <v>-0.01517842725658004</v>
+        <v>-1.718842291789719</v>
       </c>
       <c r="AB2">
-        <v>0.07737136262917067</v>
+        <v>0.08457913042766638</v>
       </c>
       <c r="AC2">
-        <v>-0.09254978988575072</v>
+        <v>-1.803421422217386</v>
       </c>
       <c r="AD2">
-        <v>74.7</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>74.7</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="AG2">
-        <v>74.693</v>
+        <v>68.384</v>
       </c>
       <c r="AH2">
-        <v>0.9734167318217356</v>
+        <v>0.8972845336481701</v>
       </c>
       <c r="AI2">
-        <v>67.90909090909038</v>
+        <v>2.496350364963503</v>
       </c>
       <c r="AJ2">
-        <v>0.973414306751984</v>
+        <v>0.8972629700579946</v>
       </c>
       <c r="AK2">
-        <v>68.33760292772165</v>
+        <v>2.497224656733859</v>
       </c>
       <c r="AL2">
-        <v>6.51</v>
+        <v>2.09</v>
       </c>
       <c r="AM2">
-        <v>6.51</v>
+        <v>1.997</v>
       </c>
       <c r="AN2">
-        <v>26.02787456445993</v>
+        <v>-834.1463414634146</v>
       </c>
       <c r="AO2">
-        <v>-0.01443932411674347</v>
+        <v>-1.392344497607656</v>
       </c>
       <c r="AP2">
-        <v>26.02543554006968</v>
+        <v>-833.9512195121951</v>
       </c>
       <c r="AQ2">
-        <v>-0.01443932411674347</v>
+        <v>-1.457185778668002</v>
       </c>
     </row>
     <row r="3">
@@ -719,25 +719,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.32</v>
+        <v>-0.252</v>
       </c>
       <c r="G3">
-        <v>0.1851239669421488</v>
+        <v>-0.02222222222222222</v>
       </c>
       <c r="H3">
-        <v>0.1851239669421488</v>
+        <v>-0.02222222222222222</v>
       </c>
       <c r="I3">
-        <v>-0.007768595041322314</v>
+        <v>-0.7886178861788619</v>
       </c>
       <c r="J3">
-        <v>-0.007768595041322314</v>
+        <v>-0.7886178861788619</v>
       </c>
       <c r="K3">
-        <v>-0.783</v>
+        <v>31.1</v>
       </c>
       <c r="L3">
-        <v>-0.0647107438016529</v>
+        <v>8.428184281842819</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -746,7 +746,7 @@
         <v>-0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -755,79 +755,79 @@
         <v>-0</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.007</v>
+        <v>0.016</v>
       </c>
       <c r="V3">
-        <v>0.003431372549019608</v>
+        <v>0.002043422733077906</v>
       </c>
       <c r="W3">
-        <v>0.01188163884673748</v>
+        <v>-0.4307479224376731</v>
       </c>
       <c r="X3">
-        <v>1.880979523609088</v>
+        <v>0.3288721801406141</v>
       </c>
       <c r="Y3">
-        <v>-1.86909788476235</v>
+        <v>-0.7596201025782873</v>
       </c>
       <c r="Z3">
-        <v>1.953818827708707</v>
+        <v>2.179562906083871</v>
       </c>
       <c r="AA3">
-        <v>-0.01517842725658004</v>
+        <v>-1.718842291789719</v>
       </c>
       <c r="AB3">
-        <v>0.07737136262917067</v>
+        <v>0.08457913042766638</v>
       </c>
       <c r="AC3">
-        <v>-0.09254978988575072</v>
+        <v>-1.803421422217386</v>
       </c>
       <c r="AD3">
-        <v>74.7</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>74.7</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="AG3">
-        <v>74.693</v>
+        <v>68.384</v>
       </c>
       <c r="AH3">
-        <v>0.9734167318217356</v>
+        <v>0.8972845336481701</v>
       </c>
       <c r="AI3">
-        <v>67.90909090909038</v>
+        <v>2.496350364963503</v>
       </c>
       <c r="AJ3">
-        <v>0.973414306751984</v>
+        <v>0.8972629700579946</v>
       </c>
       <c r="AK3">
-        <v>68.33760292772165</v>
+        <v>2.497224656733859</v>
       </c>
       <c r="AL3">
-        <v>6.51</v>
+        <v>2.09</v>
       </c>
       <c r="AM3">
-        <v>6.51</v>
+        <v>1.997</v>
       </c>
       <c r="AN3">
-        <v>26.02787456445993</v>
+        <v>-834.1463414634146</v>
       </c>
       <c r="AO3">
-        <v>-0.01443932411674347</v>
+        <v>-1.392344497607656</v>
       </c>
       <c r="AP3">
-        <v>26.02543554006968</v>
+        <v>-833.9512195121951</v>
       </c>
       <c r="AQ3">
-        <v>-0.01443932411674347</v>
+        <v>-1.457185778668002</v>
       </c>
     </row>
   </sheetData>
